--- a/biology/Médecine/Journée_mondiale_contre_l'hépatite/Journée_mondiale_contre_l'hépatite.xlsx
+++ b/biology/Médecine/Journée_mondiale_contre_l'hépatite/Journée_mondiale_contre_l'hépatite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_contre_l%27h%C3%A9patite</t>
+          <t>Journée_mondiale_contre_l'hépatite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Journée mondiale contre l'hépatite est une journée internationale qui pour but de sensibiliser à l’épidémie de l'hépatite et de renforcer les mesures pour améliorer l’accès aux services de dépistage et de traitement. Elle est organisée tous les 28 juillet par l'Assemblée mondiale de la santé après l'anniversaire de Baruch Samuel Blumberg qui identifia le virus de l'hépatite B.
-Selon l'Organisation mondiale de la santé (OMS), seule une personne sur 20 sait qu’elle a une hépatite et seulement une sur 100 est traitée[1].
+Selon l'Organisation mondiale de la santé (OMS), seule une personne sur 20 sait qu’elle a une hépatite et seulement une sur 100 est traitée.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_contre_l%27h%C3%A9patite</t>
+          <t>Journée_mondiale_contre_l'hépatite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Campagnes similaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale :
 Journée mondiale de lutte contre la tuberculose (le 24 mars) ;
 Journée mondiale de la santé (le 7 avril) ;
 Journée mondiale du paludisme (le 25 avril) ;
